--- a/CalculateClientSecurityHash/Data/Config.xlsx
+++ b/CalculateClientSecurityHash/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolo Bruno\Documents\UiPath\uiPath_ClientSecurityHash_frm\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B86818-C799-490A-B228-790805D8B797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D802F612-E2A9-4B08-BAD8-F73BC2FBFE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -109,31 +109,10 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>Academy-REFTabular-UiDemo</t>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-  </si>
-  <si>
-    <t>Data\Input\UiDemo-Transactions.xlsx</t>
-  </si>
-  <si>
-    <t>ManualTransactionThreshold</t>
-  </si>
-  <si>
-    <t>StatusFilePath</t>
-  </si>
-  <si>
-    <t>Data\Output\Status.xlsx</t>
-  </si>
-  <si>
     <t>-------------------------------------- URL ---------------------------------------</t>
   </si>
   <si>
     <t>System1_URL</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/login</t>
   </si>
   <si>
     <t>-------------------------------------- Credentials ---------------------------------------</t>
@@ -148,7 +127,13 @@
     <t>http://www.sha1-online.com/</t>
   </si>
   <si>
-    <t>mail_Credentials</t>
+    <t>Calculate Client Security Hash</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
+  </si>
+  <si>
+    <t>Mail_Credentials</t>
   </si>
 </sst>
 </file>
@@ -187,18 +172,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,7 +206,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,7 +575,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -604,47 +584,47 @@
     <row r="3" spans="1:26"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -652,35 +632,27 @@
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="9">
-        <v>10000</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
